--- a/棚内11因素传感器测试表.xlsx
+++ b/棚内11因素传感器测试表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13845" windowHeight="12270"/>
+    <workbookView windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
   <si>
     <t>棚内11因素传感器测试表</t>
   </si>
@@ -89,6 +89,144 @@
   </si>
   <si>
     <t>2019/10/16</t>
+  </si>
+  <si>
+    <t>117872321889</t>
+  </si>
+  <si>
+    <t>0C524308</t>
+  </si>
+  <si>
+    <t>000120191014192408</t>
+  </si>
+  <si>
+    <t>000120191017105901</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>2019/10/17</t>
+  </si>
+  <si>
+    <t>117872321890</t>
+  </si>
+  <si>
+    <t>0C184007</t>
+  </si>
+  <si>
+    <t>000120191017105902</t>
+  </si>
+  <si>
+    <t>可能存在短路，开启不正常</t>
+  </si>
+  <si>
+    <t>117872321886</t>
+  </si>
+  <si>
+    <t>0C555508</t>
+  </si>
+  <si>
+    <t>000120191014191907</t>
+  </si>
+  <si>
+    <t>000120191017105903</t>
+  </si>
+  <si>
+    <t>117872321888</t>
+  </si>
+  <si>
+    <t>0C254108</t>
+  </si>
+  <si>
+    <t>000120191014181203</t>
+  </si>
+  <si>
+    <t>000120191017105904</t>
+  </si>
+  <si>
+    <t>117872321905</t>
+  </si>
+  <si>
+    <t>0C23350B</t>
+  </si>
+  <si>
+    <t>000120191016115003</t>
+  </si>
+  <si>
+    <t>000120191017105905</t>
+  </si>
+  <si>
+    <t>2019/10/18</t>
+  </si>
+  <si>
+    <t>117872321904</t>
+  </si>
+  <si>
+    <t>0C213407</t>
+  </si>
+  <si>
+    <t>000120191014180202</t>
+  </si>
+  <si>
+    <t>000120191017105906</t>
+  </si>
+  <si>
+    <t>117872321884</t>
+  </si>
+  <si>
+    <t>0C204207</t>
+  </si>
+  <si>
+    <t>000120191014182004</t>
+  </si>
+  <si>
+    <t>000120191017105907</t>
+  </si>
+  <si>
+    <t>117872321912</t>
+  </si>
+  <si>
+    <t>0C21250C</t>
+  </si>
+  <si>
+    <t>000120191017105908</t>
+  </si>
+  <si>
+    <t>117872321887</t>
+  </si>
+  <si>
+    <t>0C594708</t>
+  </si>
+  <si>
+    <t>000120191014185605</t>
+  </si>
+  <si>
+    <t>000120191017105909</t>
+  </si>
+  <si>
+    <t>117872321915</t>
+  </si>
+  <si>
+    <t>0C522204</t>
+  </si>
+  <si>
+    <t>000120191016111301</t>
+  </si>
+  <si>
+    <t>000120191017105910</t>
+  </si>
+  <si>
+    <t>117872321885</t>
+  </si>
+  <si>
+    <t>0C572908</t>
+  </si>
+  <si>
+    <t>000120191014191206</t>
+  </si>
+  <si>
+    <t>000120191017105911</t>
   </si>
 </sst>
 </file>
@@ -96,10 +234,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -134,7 +272,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,32 +369,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,77 +402,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,19 +430,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,151 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,15 +621,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,7 +643,42 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,21 +694,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,19 +716,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,10 +729,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,133 +741,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1068,13 +1206,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="22.25" style="1" customWidth="1"/>
@@ -1181,6 +1319,400 @@
         <v>24</v>
       </c>
     </row>
+    <row r="4" customHeight="1" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>

--- a/棚内11因素传感器测试表.xlsx
+++ b/棚内11因素传感器测试表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="75">
   <si>
     <t>棚内11因素传感器测试表</t>
   </si>
@@ -169,21 +169,21 @@
     <t>000120191014180202</t>
   </si>
   <si>
+    <t>000120191017105907</t>
+  </si>
+  <si>
+    <t>117872321884</t>
+  </si>
+  <si>
+    <t>0C204207</t>
+  </si>
+  <si>
+    <t>000120191014182004</t>
+  </si>
+  <si>
     <t>000120191017105906</t>
   </si>
   <si>
-    <t>117872321884</t>
-  </si>
-  <si>
-    <t>0C204207</t>
-  </si>
-  <si>
-    <t>000120191014182004</t>
-  </si>
-  <si>
-    <t>000120191017105907</t>
-  </si>
-  <si>
     <t>117872321912</t>
   </si>
   <si>
@@ -227,6 +227,18 @@
   </si>
   <si>
     <t>000120191017105911</t>
+  </si>
+  <si>
+    <t>117872321870</t>
+  </si>
+  <si>
+    <t>0C0A2309</t>
+  </si>
+  <si>
+    <t>000120191019165801</t>
+  </si>
+  <si>
+    <t>2019/10/19</t>
   </si>
 </sst>
 </file>
@@ -234,9 +246,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -278,7 +290,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -294,89 +365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -408,6 +396,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -430,43 +442,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,139 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,6 +633,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -642,8 +663,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,41 +680,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,6 +707,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -729,145 +741,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,10 +1218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1"/>
@@ -1713,6 +1725,41 @@
         <v>47</v>
       </c>
     </row>
+    <row r="17" customHeight="1" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>

--- a/棚内11因素传感器测试表.xlsx
+++ b/棚内11因素传感器测试表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540"/>
+    <workbookView windowWidth="13845" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
   <si>
     <t>棚内11因素传感器测试表</t>
   </si>
@@ -169,21 +169,21 @@
     <t>000120191014180202</t>
   </si>
   <si>
+    <t>000120191017105906</t>
+  </si>
+  <si>
+    <t>117872321884</t>
+  </si>
+  <si>
+    <t>0C204207</t>
+  </si>
+  <si>
+    <t>000120191014182004</t>
+  </si>
+  <si>
     <t>000120191017105907</t>
   </si>
   <si>
-    <t>117872321884</t>
-  </si>
-  <si>
-    <t>0C204207</t>
-  </si>
-  <si>
-    <t>000120191014182004</t>
-  </si>
-  <si>
-    <t>000120191017105906</t>
-  </si>
-  <si>
     <t>117872321912</t>
   </si>
   <si>
@@ -239,6 +239,33 @@
   </si>
   <si>
     <t>2019/10/19</t>
+  </si>
+  <si>
+    <t>117872321869</t>
+  </si>
+  <si>
+    <t>0C20400B</t>
+  </si>
+  <si>
+    <t>00012019082817000A</t>
+  </si>
+  <si>
+    <t>11因素测试09</t>
+  </si>
+  <si>
+    <t>2019/11/4</t>
+  </si>
+  <si>
+    <t>117872321868</t>
+  </si>
+  <si>
+    <t>0C505204</t>
+  </si>
+  <si>
+    <t>000120191011154101</t>
+  </si>
+  <si>
+    <t>11因素测试08</t>
   </si>
 </sst>
 </file>
@@ -246,9 +273,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -284,14 +311,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,61 +416,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,21 +438,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,13 +453,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -442,6 +469,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -454,13 +589,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,157 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,30 +668,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,15 +702,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -723,6 +717,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -733,6 +751,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -741,145 +768,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1218,10 +1245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1"/>
@@ -1760,6 +1787,76 @@
         <v>74</v>
       </c>
     </row>
+    <row r="19" customHeight="1" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>

--- a/棚内11因素传感器测试表.xlsx
+++ b/棚内11因素传感器测试表.xlsx
@@ -310,6 +310,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -317,6 +348,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -332,31 +401,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,77 +432,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,6 +446,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -469,31 +469,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,151 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,30 +660,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -702,17 +678,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,15 +713,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -752,11 +722,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,10 +768,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,133 +780,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1"/>

--- a/棚内11因素传感器测试表.xlsx
+++ b/棚内11因素传感器测试表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
   <si>
     <t>棚内11因素传感器测试表</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>000120191017105905</t>
+  </si>
+  <si>
+    <t>STM32_LoRa_SensorV2.2.0烧录测试</t>
   </si>
   <si>
     <t>2019/10/18</t>
@@ -273,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -310,6 +313,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -318,21 +434,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -342,44 +443,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,67 +456,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -469,25 +472,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,157 +652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,35 +666,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,13 +690,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,23 +723,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,145 +771,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,8 +1250,8 @@
   <sheetPr/>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1"/>
@@ -1524,7 +1527,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>20</v>
@@ -1539,27 +1542,27 @@
         <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>20</v>
@@ -1574,27 +1577,27 @@
         <v>23</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>20</v>
@@ -1609,27 +1612,27 @@
         <v>23</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>20</v>
@@ -1644,27 +1647,27 @@
         <v>23</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>20</v>
@@ -1679,21 +1682,21 @@
         <v>23</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>18</v>
@@ -1714,21 +1717,21 @@
         <v>23</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
@@ -1749,21 +1752,21 @@
         <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
@@ -1784,21 +1787,21 @@
         <v>23</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
@@ -1810,7 +1813,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>29</v>
@@ -1819,21 +1822,21 @@
         <v>23</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>18</v>
@@ -1845,7 +1848,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>29</v>
@@ -1854,7 +1857,7 @@
         <v>23</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/棚内11因素传感器测试表.xlsx
+++ b/棚内11因素传感器测试表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="96">
   <si>
     <t>棚内11因素传感器测试表</t>
   </si>
@@ -61,6 +61,9 @@
     <t>复测日期</t>
   </si>
   <si>
+    <t>使用基地</t>
+  </si>
+  <si>
     <t>117872321874</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>可能存在短路，开启不正常</t>
   </si>
   <si>
+    <t>生产测试服务器（损坏，无法维修）</t>
+  </si>
+  <si>
     <t>117872321886</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
     <t>2019/10/18</t>
   </si>
   <si>
+    <t>楚雄谷兰花卉基地5棚</t>
+  </si>
+  <si>
     <t>117872321904</t>
   </si>
   <si>
@@ -175,6 +184,9 @@
     <t>000120191017105906</t>
   </si>
   <si>
+    <t>楚雄谷兰花卉基地3棚</t>
+  </si>
+  <si>
     <t>117872321884</t>
   </si>
   <si>
@@ -208,6 +220,9 @@
     <t>000120191017105909</t>
   </si>
   <si>
+    <t>楚雄谷兰花卉基地6棚</t>
+  </si>
+  <si>
     <t>117872321915</t>
   </si>
   <si>
@@ -220,6 +235,9 @@
     <t>000120191017105910</t>
   </si>
   <si>
+    <t>李海坤花卉农场</t>
+  </si>
+  <si>
     <t>117872321885</t>
   </si>
   <si>
@@ -269,6 +287,21 @@
   </si>
   <si>
     <t>11因素测试08</t>
+  </si>
+  <si>
+    <t>0C43580C</t>
+  </si>
+  <si>
+    <t>00012019082817020A</t>
+  </si>
+  <si>
+    <t>STM32_LoRa_SensorV2.1.10_PH测试</t>
+  </si>
+  <si>
+    <t>生产测试区域</t>
+  </si>
+  <si>
+    <t>楚雄谷兰花卉基地7棚</t>
   </si>
 </sst>
 </file>
@@ -276,10 +309,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -313,6 +346,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -322,14 +378,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,14 +430,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,77 +476,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -472,19 +505,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,42 +625,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -544,19 +637,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,91 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,22 +703,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,25 +724,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,6 +749,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,10 +804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,73 +816,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -858,58 +891,58 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,23 +1281,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="33.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="15.625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="33.5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="15.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:14">
@@ -1285,7 +1322,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:14">
+    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1327,537 +1364,617 @@
       </c>
       <c r="N2" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:15">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
+    <row r="5" customHeight="1" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="M5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:14">
-      <c r="A5" s="1" t="s">
+    <row r="6" customHeight="1" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="O6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
+    <row r="10" customHeight="1" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
+    <row r="15" customHeight="1" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="9" customHeight="1" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1" t="s">
+    <row r="17" customHeight="1" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>48</v>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="1" t="s">
+    <row r="19" customHeight="1" spans="1:15">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>48</v>
+      <c r="G19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="1" t="s">
+    <row r="20" customHeight="1" spans="1:15">
+      <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>48</v>
+      <c r="G20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
+    <row r="22" customHeight="1" spans="2:15">
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:11">
-      <c r="A19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>80</v>
+      <c r="F22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/棚内11因素传感器测试表.xlsx
+++ b/棚内11因素传感器测试表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13845" windowHeight="12270"/>
+    <workbookView windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="97">
   <si>
     <t>棚内11因素传感器测试表</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>11因素测试08</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
   <si>
     <t>0C43580C</t>
@@ -309,9 +312,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -353,6 +356,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -361,6 +408,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -377,78 +477,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,36 +492,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -517,37 +520,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,19 +658,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,109 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,23 +705,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,11 +750,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,8 +783,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,31 +807,31 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,112 +840,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,23 +1286,21 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.25" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="22.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="27.625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="14" width="15.625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="14" width="15.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="33.5" style="1" customWidth="1"/>
     <col min="16" max="16384" width="15.625" style="1" customWidth="1"/>
   </cols>
@@ -1942,27 +1943,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="2:15">
+    <row r="22" customHeight="1" spans="1:15">
+      <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>30</v>
@@ -1974,7 +1978,7 @@
         <v>86</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/棚内11因素传感器测试表.xlsx
+++ b/棚内11因素传感器测试表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540"/>
+    <workbookView windowWidth="13725" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
   <si>
     <t>棚内11因素传感器测试表</t>
   </si>
@@ -305,6 +305,45 @@
   </si>
   <si>
     <t>楚雄谷兰花卉基地7棚</t>
+  </si>
+  <si>
+    <t>117872322398</t>
+  </si>
+  <si>
+    <t>000120191128141801</t>
+  </si>
+  <si>
+    <t>LoRa无线传感器V7.0</t>
+  </si>
+  <si>
+    <t>STM32_LORA_GS100_V1.0.0_alpha</t>
+  </si>
+  <si>
+    <t>117872322404</t>
+  </si>
+  <si>
+    <t>000120191128141802</t>
+  </si>
+  <si>
+    <t>117872322405</t>
+  </si>
+  <si>
+    <t>0C525908</t>
+  </si>
+  <si>
+    <t>000120191128141803</t>
+  </si>
+  <si>
+    <t>117872322403</t>
+  </si>
+  <si>
+    <t>000120191128141804</t>
+  </si>
+  <si>
+    <t>117872322402</t>
+  </si>
+  <si>
+    <t>000120191128141805</t>
   </si>
 </sst>
 </file>
@@ -312,10 +351,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -350,21 +389,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,76 +503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,17 +525,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,43 +547,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,139 +721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,24 +738,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -750,17 +771,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,11 +795,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -799,6 +820,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -807,145 +846,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,10 +1323,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1"/>
@@ -1981,6 +2020,109 @@
         <v>96</v>
       </c>
     </row>
+    <row r="25" customHeight="1" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>

--- a/棚内11因素传感器测试表.xlsx
+++ b/棚内11因素传感器测试表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12270"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="117">
   <si>
     <t>棚内11因素传感器测试表</t>
   </si>
@@ -310,6 +310,9 @@
     <t>117872322398</t>
   </si>
   <si>
+    <t>0C265107</t>
+  </si>
+  <si>
     <t>000120191128141801</t>
   </si>
   <si>
@@ -319,12 +322,21 @@
     <t>STM32_LORA_GS100_V1.0.0_alpha</t>
   </si>
   <si>
+    <t>2019/12/7</t>
+  </si>
+  <si>
     <t>117872322404</t>
   </si>
   <si>
+    <t>0C202707</t>
+  </si>
+  <si>
     <t>000120191128141802</t>
   </si>
   <si>
+    <t>LORA发不出消息</t>
+  </si>
+  <si>
     <t>117872322405</t>
   </si>
   <si>
@@ -334,13 +346,22 @@
     <t>000120191128141803</t>
   </si>
   <si>
+    <t>串口打印数据不正常</t>
+  </si>
+  <si>
     <t>117872322403</t>
   </si>
   <si>
+    <t>0C173207</t>
+  </si>
+  <si>
     <t>000120191128141804</t>
   </si>
   <si>
     <t>117872322402</t>
+  </si>
+  <si>
+    <t>0C422708</t>
   </si>
   <si>
     <t>000120191128141805</t>
@@ -351,10 +372,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -396,77 +417,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,13 +426,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,9 +447,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,7 +501,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,187 +568,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,32 +762,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,6 +797,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -810,31 +845,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,10 +867,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,133 +879,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1326,7 +1347,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1"/>
@@ -2020,18 +2041,21 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:8">
+    <row r="25" customHeight="1" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>21</v>
@@ -2039,19 +2063,28 @@
       <c r="H25" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="J25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="26" customHeight="1" spans="1:8">
+    <row r="26" customHeight="1" spans="1:11">
       <c r="A26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>21</v>
@@ -2059,22 +2092,31 @@
       <c r="H26" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="I26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="27" customHeight="1" spans="1:8">
+    <row r="27" customHeight="1" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>21</v>
@@ -2082,19 +2124,31 @@
       <c r="H27" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="I27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="28" customHeight="1" spans="1:8">
+    <row r="28" customHeight="1" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>21</v>
@@ -2102,25 +2156,40 @@
       <c r="H28" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="J28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="29" customHeight="1" spans="1:8">
+    <row r="29" customHeight="1" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/棚内11因素传感器测试表.xlsx
+++ b/棚内11因素传感器测试表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="117">
   <si>
     <t>棚内11因素传感器测试表</t>
   </si>
@@ -319,7 +319,7 @@
     <t>LoRa无线传感器V7.0</t>
   </si>
   <si>
-    <t>STM32_LORA_GS100_V1.0.0_alpha</t>
+    <t>STM32_LORA_GS100_V2.0.0_beta</t>
   </si>
   <si>
     <t>2019/12/7</t>
@@ -409,15 +409,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,7 +419,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,7 +441,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,15 +470,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,6 +514,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -530,14 +538,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -547,7 +547,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,187 +568,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,74 +759,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -859,6 +791,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -867,10 +867,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,133 +879,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1346,8 +1346,8 @@
   <sheetPr/>
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1"/>
@@ -2070,7 +2070,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:11">
+    <row r="26" customHeight="1" spans="1:13">
       <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
@@ -2101,8 +2101,14 @@
       <c r="K26" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="L26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="27" customHeight="1" spans="1:11">
+    <row r="27" customHeight="1" spans="1:13">
       <c r="A27" s="1" t="s">
         <v>107</v>
       </c>
@@ -2132,6 +2138,12 @@
       </c>
       <c r="K27" s="1" t="s">
         <v>102</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:11">

--- a/棚内11因素传感器测试表.xlsx
+++ b/棚内11因素传感器测试表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="261">
   <si>
     <t>棚内11因素传感器测试表</t>
   </si>
@@ -322,7 +322,7 @@
     <t>STM32_LORA_GS100_V2.0.0_beta</t>
   </si>
   <si>
-    <t>2019/12/7</t>
+    <t>2020/01/10</t>
   </si>
   <si>
     <t>117872322404</t>
@@ -365,6 +365,761 @@
   </si>
   <si>
     <t>000120191128141805</t>
+  </si>
+  <si>
+    <t>1178723224</t>
+  </si>
+  <si>
+    <t>0C4E590C</t>
+  </si>
+  <si>
+    <t>000120200108103001</t>
+  </si>
+  <si>
+    <t>LoRa无线传感器V7.1</t>
+  </si>
+  <si>
+    <t>STM32_LORA_GS100_V2.1.1_beta</t>
+  </si>
+  <si>
+    <t>赵学鑫</t>
+  </si>
+  <si>
+    <t>0C1A3605</t>
+  </si>
+  <si>
+    <t>000120200108103002</t>
+  </si>
+  <si>
+    <t>117872322407</t>
+  </si>
+  <si>
+    <t>0C293205</t>
+  </si>
+  <si>
+    <t>000120200108103003</t>
+  </si>
+  <si>
+    <r>
+      <t>MCU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>短路</t>
+    </r>
+  </si>
+  <si>
+    <t>0C433B01</t>
+  </si>
+  <si>
+    <t>000120200108103004</t>
+  </si>
+  <si>
+    <t>0C1B1801</t>
+  </si>
+  <si>
+    <t>000120200108103005</t>
+  </si>
+  <si>
+    <t>土壤数据没有测出来(485芯片没焊接好)</t>
+  </si>
+  <si>
+    <t>0C444710</t>
+  </si>
+  <si>
+    <t>000120200108103006</t>
+  </si>
+  <si>
+    <t>0C363205</t>
+  </si>
+  <si>
+    <t>000120200108103007</t>
+  </si>
+  <si>
+    <t>117872322406</t>
+  </si>
+  <si>
+    <t>0C153605</t>
+  </si>
+  <si>
+    <t>000120200108103008</t>
+  </si>
+  <si>
+    <r>
+      <t>485</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一直处于接收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>收不到数据</t>
+    </r>
+  </si>
+  <si>
+    <t>0C285105</t>
+  </si>
+  <si>
+    <t>000120200108103009</t>
+  </si>
+  <si>
+    <r>
+      <t>5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>升压电路故障</t>
+    </r>
+  </si>
+  <si>
+    <t>117872322429</t>
+  </si>
+  <si>
+    <t>0C364005</t>
+  </si>
+  <si>
+    <t>000120200108103010</t>
+  </si>
+  <si>
+    <t>485芯片故障</t>
+  </si>
+  <si>
+    <t>0C343705</t>
+  </si>
+  <si>
+    <t>000120200108103011</t>
+  </si>
+  <si>
+    <t>117872322415</t>
+  </si>
+  <si>
+    <t>0C3B1005</t>
+  </si>
+  <si>
+    <t>000120200108103012</t>
+  </si>
+  <si>
+    <r>
+      <t>内部有短路（排除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LORA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>485</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）应该是单片机短路</t>
+    </r>
+  </si>
+  <si>
+    <t>117872322416</t>
+  </si>
+  <si>
+    <t>0C391405</t>
+  </si>
+  <si>
+    <t>000120200108103013</t>
+  </si>
+  <si>
+    <t>程序不能下载进去(单片机/ch340)能识别串口</t>
+  </si>
+  <si>
+    <t>117872322419</t>
+  </si>
+  <si>
+    <t>0C342E05</t>
+  </si>
+  <si>
+    <t>000120200108103014</t>
+  </si>
+  <si>
+    <t>串口无法输出数据(单片机问题)</t>
+  </si>
+  <si>
+    <t>0C484910</t>
+  </si>
+  <si>
+    <t>000120200108103015</t>
+  </si>
+  <si>
+    <r>
+      <t>SN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不能生成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天线没插好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>0C1E3905</t>
+  </si>
+  <si>
+    <t>000120200108103016</t>
+  </si>
+  <si>
+    <t>I2C线路故障（温湿度，光照数据不对）</t>
+  </si>
+  <si>
+    <t>0C1A5505</t>
+  </si>
+  <si>
+    <t>000120200108103017</t>
+  </si>
+  <si>
+    <t>117872322424</t>
+  </si>
+  <si>
+    <t>0C3A0E05</t>
+  </si>
+  <si>
+    <t>000120200108103018</t>
+  </si>
+  <si>
+    <t>光照的座子没焊好</t>
+  </si>
+  <si>
+    <t>0C395F05</t>
+  </si>
+  <si>
+    <t>000120200108103019</t>
+  </si>
+  <si>
+    <t>0C1F5410</t>
+  </si>
+  <si>
+    <t>000120200108103020</t>
+  </si>
+  <si>
+    <t>程序下载不进去(识别不到串口)</t>
+  </si>
+  <si>
+    <t>0C195005</t>
+  </si>
+  <si>
+    <t>000120200108103021</t>
+  </si>
+  <si>
+    <r>
+      <t>温湿度数据错误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>座子没焊好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>117872322430</t>
+  </si>
+  <si>
+    <t>0C3C1C05</t>
+  </si>
+  <si>
+    <t>000120200108103022</t>
+  </si>
+  <si>
+    <r>
+      <t>485</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>土壤的座子短路</t>
+    </r>
+  </si>
+  <si>
+    <t>0C082502</t>
+  </si>
+  <si>
+    <t>000120200108103023</t>
+  </si>
+  <si>
+    <t>117872322432</t>
+  </si>
+  <si>
+    <t>0C371101</t>
+  </si>
+  <si>
+    <t>000120200108103024</t>
+  </si>
+  <si>
+    <t>土壤数据没有测出来(485一直处于接收)</t>
+  </si>
+  <si>
+    <t>117872322433</t>
+  </si>
+  <si>
+    <t>0C1E2905</t>
+  </si>
+  <si>
+    <t>000120200108103025</t>
+  </si>
+  <si>
+    <r>
+      <t>串口无法识别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(12V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电感短路了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>0C396605</t>
+  </si>
+  <si>
+    <t>000120200108103026</t>
+  </si>
+  <si>
+    <r>
+      <t>土壤温度和含水量没有测出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(485</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>读不出数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>0C372605</t>
+  </si>
+  <si>
+    <t>000120200108103027</t>
+  </si>
+  <si>
+    <t>0C1E3001</t>
+  </si>
+  <si>
+    <t>000120200108103028</t>
+  </si>
+  <si>
+    <t>0C152C05</t>
+  </si>
+  <si>
+    <t>000120200108103029</t>
+  </si>
+  <si>
+    <t>0C281F05</t>
+  </si>
+  <si>
+    <t>000120200108103030</t>
+  </si>
+  <si>
+    <t>0C363805</t>
+  </si>
+  <si>
+    <t>000120200108103031</t>
+  </si>
+  <si>
+    <t>0C474110</t>
+  </si>
+  <si>
+    <t>000120200108103032</t>
+  </si>
+  <si>
+    <t>117872322441</t>
+  </si>
+  <si>
+    <t>0C1B1205</t>
+  </si>
+  <si>
+    <t>000120200108103033</t>
+  </si>
+  <si>
+    <r>
+      <t>串口无法识别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(5V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电压没有，存在短路现象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>0C353F05</t>
+  </si>
+  <si>
+    <t>000120200108103034</t>
+  </si>
+  <si>
+    <t>117872322443</t>
+  </si>
+  <si>
+    <t>0C123E02</t>
+  </si>
+  <si>
+    <t>000120200108103035</t>
+  </si>
+  <si>
+    <r>
+      <t>所有数据都没有测出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内部短路，电路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>0C172F05</t>
+  </si>
+  <si>
+    <t>000120200108103036</t>
+  </si>
+  <si>
+    <t>0C472210</t>
+  </si>
+  <si>
+    <t>000120200108103037</t>
+  </si>
+  <si>
+    <t>117872322446</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0C292E05</t>
+  </si>
+  <si>
+    <t>000120200108103038</t>
+  </si>
+  <si>
+    <t>0C364101</t>
+  </si>
+  <si>
+    <t>000120200108103039</t>
+  </si>
+  <si>
+    <t>0C151E05</t>
+  </si>
+  <si>
+    <t>000120200108103040</t>
+  </si>
+  <si>
+    <t>0C362805</t>
+  </si>
+  <si>
+    <t>000120200108103041</t>
+  </si>
+  <si>
+    <t>0C125003</t>
+  </si>
+  <si>
+    <t>000120200108103042</t>
+  </si>
+  <si>
+    <t>117872322449</t>
+  </si>
+  <si>
+    <t>0C3C2905</t>
+  </si>
+  <si>
+    <t>000120200108103043</t>
+  </si>
+  <si>
+    <t>土壤温度和含水量没有测出来(485读不出数据)</t>
+  </si>
+  <si>
+    <t>0C122F01</t>
+  </si>
+  <si>
+    <t>000120200108103044</t>
+  </si>
+  <si>
+    <t>0C390505</t>
+  </si>
+  <si>
+    <t>000120200108103045</t>
+  </si>
+  <si>
+    <r>
+      <t>短路大电流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3A</t>
+    </r>
+  </si>
+  <si>
+    <t>117872322453</t>
+  </si>
+  <si>
+    <t>0C493510</t>
+  </si>
+  <si>
+    <t>000120200108103046</t>
+  </si>
+  <si>
+    <r>
+      <t>485</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>芯片故障</t>
+    </r>
+  </si>
+  <si>
+    <t>117872322457</t>
+  </si>
+  <si>
+    <t>0C495B10</t>
+  </si>
+  <si>
+    <t>000120200108103047</t>
+  </si>
+  <si>
+    <t>0C374705</t>
+  </si>
+  <si>
+    <t>000120200108103048</t>
+  </si>
+  <si>
+    <t>0C222301</t>
+  </si>
+  <si>
+    <t>000120200108103049</t>
+  </si>
+  <si>
+    <t>0C380D01</t>
+  </si>
+  <si>
+    <t>000120200108103050</t>
+  </si>
+  <si>
+    <t>0C4B1610</t>
+  </si>
+  <si>
+    <t>000120200108103051</t>
   </si>
 </sst>
 </file>
@@ -372,12 +1127,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,27 +1164,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -437,35 +1201,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,23 +1220,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,23 +1266,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,8 +1303,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,7 +1348,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +1444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,127 +1468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,25 +1486,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,6 +1539,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -773,6 +1568,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,55 +1615,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,6 +1630,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -867,10 +1647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,137 +1659,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,6 +1803,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1344,23 +2145,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="22.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="33.875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="48" style="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="14" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="15.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="33.5" style="1" customWidth="1"/>
     <col min="16" max="16384" width="15.625" style="1" customWidth="1"/>
   </cols>
@@ -1525,7 +2329,7 @@
       <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -2051,6 +2855,9 @@
       <c r="C25" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="E25" s="1" t="s">
         <v>100</v>
       </c>
@@ -2062,6 +2869,9 @@
       </c>
       <c r="H25" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>24</v>
@@ -2080,6 +2890,9 @@
       <c r="C26" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="D26" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="E26" s="1" t="s">
         <v>100</v>
       </c>
@@ -2092,7 +2905,7 @@
       <c r="H26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="6" t="s">
         <v>106</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -2118,6 +2931,9 @@
       <c r="C27" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="D27" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E27" s="1" t="s">
         <v>100</v>
       </c>
@@ -2130,7 +2946,7 @@
       <c r="H27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="6" t="s">
         <v>110</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -2156,6 +2972,9 @@
       <c r="C28" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="E28" s="1" t="s">
         <v>100</v>
       </c>
@@ -2167,6 +2986,9 @@
       </c>
       <c r="H28" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>24</v>
@@ -2185,6 +3007,9 @@
       <c r="C29" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="D29" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E29" s="1" t="s">
         <v>100</v>
       </c>
@@ -2197,11 +3022,1631 @@
       <c r="H29" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="I29" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="J29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:13">
+      <c r="A34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:13">
+      <c r="A36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:10">
+      <c r="A38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:10">
+      <c r="A41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:10">
+      <c r="A42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:13">
+      <c r="A46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:13">
+      <c r="A47" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:10">
+      <c r="A48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:10">
+      <c r="A50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:13">
+      <c r="A51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:13">
+      <c r="A52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:13">
+      <c r="A53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:13">
+      <c r="A54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:10">
+      <c r="A58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:10">
+      <c r="A59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:10">
+      <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:10">
+      <c r="A61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:10">
+      <c r="A62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:10">
+      <c r="A63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:10">
+      <c r="A65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:12">
+      <c r="A66" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:10">
+      <c r="A67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:10">
+      <c r="A68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:10">
+      <c r="A70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:10">
+      <c r="A71" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:10">
+      <c r="A72" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:10">
+      <c r="A73" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:10">
+      <c r="A74" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:10">
+      <c r="A75" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:12">
+      <c r="A78" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:10">
+      <c r="A79" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:10">
+      <c r="A80" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:10">
+      <c r="A81" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2209,6 +4654,7 @@
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>